--- a/output/【河洛話注音】顏氏家訓．教子.xlsx
+++ b/output/【河洛話注音】顏氏家訓．教子.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE8D80DE-F929-4590-B9D7-5FE71617C35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2691868C-A50F-4913-888D-4A20EA7306A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27870" yWindow="1890" windowWidth="26880" windowHeight="12300" xr2:uid="{22E36B99-D982-457C-B4FD-C39C9F205042}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{22E36B99-D982-457C-B4FD-C39C9F205042}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="660">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -81,15 +81,6 @@
   </si>
   <si>
     <t>https://imagepphcloud.thepaper.cn/pph/image/138/820/983.jpg</t>
-  </si>
-  <si>
-    <t>教子:	
-王大司馬母魏夫人，性甚嚴正；王在湓城時，為三千人將，年踰四十，少不如意，猶捶撻之，故能成其勳業。梁元帝時，有一學士，聰敏有才，為父所寵，失於教義：一言之是，遍於行路，終年譽之；一行之非，揜藏文飾，冀其自改。年登婚宦，暴慢日滋，竟以言語不擇，為周逖抽腸釁鼓云。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>顏氏家訓</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>教</t>
@@ -2067,6 +2058,22 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;云&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;wún&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>《顏氏家訓。教子》</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">教子:	</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王大司馬母魏夫人，性甚嚴正；王在湓城時，為三千人將，年踰四十，少不如意，猶捶撻之，故能成其勳業。梁元帝時，有一學士，聰敏有才，為父所寵，失於教義：一言之是，遍於行路，終年譽之；一行之非，揜藏文飾，冀其自改。年登婚宦，暴慢日滋，竟以言語不擇，為周逖抽腸釁鼓云。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏氏家訓【教子】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2488,7 +2495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786652C9-62D9-4134-9DD8-64780376D1C3}">
   <dimension ref="A1:A138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
@@ -2497,692 +2504,692 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3236,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3266,692 +3273,692 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3973,692 +3980,692 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4680,692 +4687,692 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -5387,692 +5394,692 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -6091,16 +6098,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
         <v>107</v>
-      </c>
-      <c r="C1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" t="s">
-        <v>109</v>
       </c>
       <c r="E1">
         <v>3</v>
@@ -6114,16 +6121,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -6137,31 +6144,31 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="51">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
         <v>113</v>
-      </c>
-      <c r="C6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" t="s">
-        <v>115</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -6175,16 +6182,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
         <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" t="s">
-        <v>119</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -6198,16 +6205,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -6221,16 +6228,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
         <v>124</v>
-      </c>
-      <c r="C9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" t="s">
-        <v>126</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -6244,16 +6251,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -6267,16 +6274,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
         <v>133</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" t="s">
-        <v>135</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -6290,16 +6297,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -6313,16 +6320,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
         <v>139</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" t="s">
-        <v>141</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -6336,21 +6343,21 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -6364,16 +6371,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -6387,16 +6394,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -6410,16 +6417,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -6433,21 +6440,21 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
         <v>113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -6461,16 +6468,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E21">
         <v>7</v>
@@ -6484,16 +6491,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" t="s">
         <v>151</v>
-      </c>
-      <c r="C22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" t="s">
-        <v>153</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -6507,16 +6514,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -6530,16 +6537,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -6553,21 +6560,21 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -6581,16 +6588,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -6604,16 +6611,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" t="s">
         <v>162</v>
-      </c>
-      <c r="C28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" t="s">
-        <v>164</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -6627,16 +6634,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
         <v>139</v>
-      </c>
-      <c r="C29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" t="s">
-        <v>141</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -6650,16 +6657,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -6673,21 +6680,21 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -6701,16 +6708,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -6724,16 +6731,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -6747,16 +6754,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E35">
         <v>8</v>
@@ -6770,21 +6777,21 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -6798,16 +6805,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -6821,16 +6828,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -6844,16 +6851,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -6867,21 +6874,21 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -6895,21 +6902,21 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -6923,16 +6930,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -6946,21 +6953,21 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -6974,16 +6981,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -6997,16 +7004,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -7020,16 +7027,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E50">
         <v>5</v>
@@ -7043,16 +7050,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -7066,16 +7073,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E52">
         <v>8</v>
@@ -7089,21 +7096,21 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E54">
         <v>5</v>
@@ -7117,16 +7124,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -7140,16 +7147,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -7163,16 +7170,16 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E57">
         <v>5</v>
@@ -7186,21 +7193,21 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -7214,16 +7221,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E60">
         <v>4</v>
@@ -7237,16 +7244,16 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E61">
         <v>8</v>
@@ -7260,16 +7267,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -7283,21 +7290,21 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -7311,16 +7318,16 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -7334,16 +7341,16 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -7357,16 +7364,16 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -7380,21 +7387,21 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E69">
         <v>5</v>
@@ -7408,16 +7415,16 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -7431,16 +7438,16 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -7454,16 +7461,16 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -7477,21 +7484,21 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C74" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D74" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -7505,16 +7512,16 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -7528,16 +7535,16 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
         <v>107</v>
-      </c>
-      <c r="C76" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" t="s">
-        <v>109</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -7551,16 +7558,16 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -7574,21 +7581,21 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D79" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -7602,16 +7609,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -7625,16 +7632,16 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -7648,16 +7655,16 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E82">
         <v>7</v>
@@ -7671,21 +7678,21 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -7699,16 +7706,16 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D85" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -7722,16 +7729,16 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -7745,16 +7752,16 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B87" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E87">
         <v>7</v>
@@ -7768,21 +7775,21 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -7796,16 +7803,16 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C90" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E90">
         <v>5</v>
@@ -7819,16 +7826,16 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D91" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -7842,16 +7849,16 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -7865,21 +7872,21 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D94" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -7893,16 +7900,16 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B95" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E95">
         <v>5</v>
@@ -7916,16 +7923,16 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -7939,16 +7946,16 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -7962,21 +7969,21 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -7990,16 +7997,16 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B100" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D100" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E100">
         <v>5</v>
@@ -8013,16 +8020,16 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C101" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D101" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E101">
         <v>5</v>
@@ -8036,16 +8043,16 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C102" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D102" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E102">
         <v>4</v>
@@ -8059,21 +8066,21 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C104" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E104">
         <v>3</v>
@@ -8087,16 +8094,16 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -8110,16 +8117,16 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E106">
         <v>7</v>
@@ -8133,16 +8140,16 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D107" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -8156,21 +8163,21 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C109" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D109" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E109">
         <v>5</v>
@@ -8184,16 +8191,16 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B110" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -8207,16 +8214,16 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D111" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -8230,16 +8237,16 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B112" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D112" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E112">
         <v>7</v>
@@ -8253,21 +8260,21 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B114" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C114" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D114" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E114">
         <v>8</v>
@@ -8281,16 +8288,16 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B115" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E115">
         <v>7</v>
@@ -8304,16 +8311,16 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C116" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D116" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E116">
         <v>8</v>
@@ -8327,16 +8334,16 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C117" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D117" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -8350,21 +8357,21 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C119" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D119" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -8378,16 +8385,16 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C120" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -8401,16 +8408,16 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -8424,16 +8431,16 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C122" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E122">
         <v>7</v>
@@ -8447,16 +8454,16 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C123" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D123" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -8470,16 +8477,16 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B124" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C124" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E124">
         <v>8</v>
@@ -8493,21 +8500,21 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B126" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C126" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D126" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -8521,16 +8528,16 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C127" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D127" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -8544,16 +8551,16 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C128" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D128" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E128">
         <v>4</v>
@@ -8567,16 +8574,16 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C129" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D129" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -8590,16 +8597,16 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D130" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E130">
         <v>5</v>
@@ -8613,16 +8620,16 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C131" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D131" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E131">
         <v>3</v>
@@ -8636,16 +8643,16 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C132" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D132" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E132">
         <v>2</v>
@@ -8659,16 +8666,16 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D133" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E133">
         <v>5</v>
@@ -8682,12 +8689,12 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="51">
       <c r="A135" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8712,16 +8719,16 @@
         <v>2806</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
         <v>113</v>
-      </c>
-      <c r="E1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" t="s">
-        <v>115</v>
       </c>
       <c r="G1">
         <v>5</v>
@@ -8738,16 +8745,16 @@
         <v>2922</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -8764,16 +8771,16 @@
         <v>6653</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
         <v>117</v>
-      </c>
-      <c r="E3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" t="s">
-        <v>119</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -8790,16 +8797,16 @@
         <v>6739</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -8816,16 +8823,16 @@
         <v>1875</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" t="s">
-        <v>126</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -8842,16 +8849,16 @@
         <v>8711</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -8868,16 +8875,16 @@
         <v>4870</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8894,16 +8901,16 @@
         <v>6293</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -8920,16 +8927,16 @@
         <v>8789</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8946,16 +8953,16 @@
         <v>8947</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -8972,16 +8979,16 @@
         <v>3175</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8998,16 +9005,16 @@
         <v>3400</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -9024,16 +9031,16 @@
         <v>2806</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
         <v>113</v>
-      </c>
-      <c r="E13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" t="s">
-        <v>115</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -9050,16 +9057,16 @@
         <v>2922</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -9076,16 +9083,16 @@
         <v>1735</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -9102,16 +9109,16 @@
         <v>1796</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -9128,16 +9135,16 @@
         <v>7541</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -9154,16 +9161,16 @@
         <v>7644</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -9180,16 +9187,16 @@
         <v>7273</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -9206,16 +9213,16 @@
         <v>7237</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -9232,16 +9239,16 @@
         <v>7335</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -9258,16 +9265,16 @@
         <v>5330</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -9284,16 +9291,16 @@
         <v>5400</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -9310,16 +9317,16 @@
         <v>10212</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -9336,16 +9343,16 @@
         <v>4880</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -9362,16 +9369,16 @@
         <v>8804</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -9388,16 +9395,16 @@
         <v>305</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" t="s">
         <v>181</v>
-      </c>
-      <c r="E27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" t="s">
-        <v>183</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -9414,16 +9421,16 @@
         <v>10260</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -9440,16 +9447,16 @@
         <v>10431</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -9466,16 +9473,16 @@
         <v>10260</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -9492,16 +9499,16 @@
         <v>10431</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G31">
         <v>7</v>
@@ -9518,16 +9525,16 @@
         <v>6722</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -9544,16 +9551,16 @@
         <v>6703</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G33">
         <v>5</v>
@@ -9570,16 +9577,16 @@
         <v>1735</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -9596,16 +9603,16 @@
         <v>1796</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -9622,16 +9629,16 @@
         <v>8866</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -9648,16 +9655,16 @@
         <v>8993</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G37">
         <v>7</v>
@@ -9674,16 +9681,16 @@
         <v>9198</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -9700,16 +9707,16 @@
         <v>4746</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -9726,16 +9733,16 @@
         <v>9198</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -9752,16 +9759,16 @@
         <v>4746</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -9778,16 +9785,16 @@
         <v>3837</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -9804,16 +9811,16 @@
         <v>3917</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G43">
         <v>7</v>
@@ -9830,16 +9837,16 @@
         <v>10658</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -9856,16 +9863,16 @@
         <v>9883</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -9882,16 +9889,16 @@
         <v>10131</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -9908,16 +9915,16 @@
         <v>3837</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -9934,16 +9941,16 @@
         <v>3917</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -9960,16 +9967,16 @@
         <v>10658</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -9986,16 +9993,16 @@
         <v>2796</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -10012,16 +10019,16 @@
         <v>2921</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G51">
         <v>7</v>
@@ -10038,16 +10045,16 @@
         <v>3000</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E52" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -10064,16 +10071,16 @@
         <v>6457</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G53">
         <v>7</v>
@@ -10090,16 +10097,16 @@
         <v>10145</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G54">
         <v>7</v>
@@ -10116,16 +10123,16 @@
         <v>9477</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -10142,16 +10149,16 @@
         <v>10212</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -10168,16 +10175,16 @@
         <v>4880</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -10194,16 +10201,16 @@
         <v>8804</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -10220,16 +10227,16 @@
         <v>305</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" t="s">
         <v>181</v>
-      </c>
-      <c r="E59" t="s">
-        <v>182</v>
-      </c>
-      <c r="F59" t="s">
-        <v>183</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -10246,16 +10253,16 @@
         <v>1735</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G60">
         <v>5</v>
@@ -10272,16 +10279,16 @@
         <v>1796</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G61">
         <v>7</v>
@@ -10298,16 +10305,16 @@
         <v>10672</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G62">
         <v>5</v>
@@ -10324,16 +10331,16 @@
         <v>7088</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -10361,7 +10368,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1">
         <v>43</v>
@@ -10375,18 +10382,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F230C00-AD86-40E9-9F30-3CF461C4936F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="76.5">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="51">
+      <c r="A4" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
